--- a/Note.xlsx
+++ b/Note.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conghoang/_Work/_DailyLeetCodeChallange/_DailyLeetCode_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB09B4B1-452B-FF4B-B37E-BF33FDA18963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4686EA38-9AB1-594F-BEFB-92280CCA87E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36100" yWindow="-1020" windowWidth="28040" windowHeight="17040" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
+    <workbookView xWindow="-36100" yWindow="-1100" windowWidth="34220" windowHeight="21100" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>https://leetcode.com/problems/max-consecutive-ones/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MxAybn96rlQ&amp;t=300s</t>
-  </si>
-  <si>
     <t>Find Numbers with Even Number of Digits</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>https://leetcode.com/problems/remove-element</t>
   </si>
   <si>
-    <t>Remove Duplicates from Sorted Arra</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array</t>
   </si>
   <si>
@@ -142,6 +136,60 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MxAybn96rlQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lh1cpUO0ywc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BJNvpYLw4Rg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-x9T4LBrTmA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzKE5ZIg1gc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AOP4FhSnkHE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pMK8R3M_Lwk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OSgK6a_y-SI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5tZarJ6LiZc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FAQtUPvtwEc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UsUTHGbpvzY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9IjY90pkWj0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcXTtMlDhLs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jc99cVBkac0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1j-fMOGdE-Q</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>#array</t>
+  </si>
+  <si>
+    <t>#array #sort</t>
   </si>
 </sst>
 </file>
@@ -214,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,6 +277,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,834 +598,960 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A12903-E2B6-B344-BB9D-D2A161D6A3F4}">
-  <dimension ref="A7:F96"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.83203125" customWidth="1"/>
+    <col min="6" max="7" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>485</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <f>A2 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1295</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <f xml:space="preserve"> A3 + 1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="B4" s="3">
+        <v>977</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5" si="0">A4 + 1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>1</v>
+      <c r="B5" s="3">
+        <v>1089</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <f t="shared" ref="A6" si="1" xml:space="preserve"> A5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f t="shared" ref="A7" si="2">A6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f t="shared" ref="A8" si="3" xml:space="preserve"> A7 + 1</f>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>485</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f t="shared" ref="A9" si="4">A8 + 1</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
       <c r="B9" s="3">
-        <v>1295</v>
+        <v>1346</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" ref="A10" si="5" xml:space="preserve"> A9 + 1</f>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>977</v>
+        <v>941</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f>A10 + 1</f>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>1089</v>
+        <v>1299</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f xml:space="preserve"> A11 + 1</f>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" ref="A13:A53" si="6">A12 + 1</f>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>27</v>
+        <v>905</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <f t="shared" ref="A14:A54" si="7" xml:space="preserve"> A13 + 1</f>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>26</v>
+        <v>1051</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>1346</v>
+        <v>414</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <f t="shared" ref="A16:A54" si="8" xml:space="preserve"> A15 + 1</f>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>941</v>
+        <v>448</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <f t="shared" ref="A18:A54" si="9" xml:space="preserve"> A17 + 1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <f t="shared" ref="A20:A54" si="10" xml:space="preserve"> A19 + 1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <f t="shared" ref="A22:A54" si="11" xml:space="preserve"> A21 + 1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <f t="shared" ref="A24:A54" si="12" xml:space="preserve"> A23 + 1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <f t="shared" si="6"/>
         <v>24</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1299</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3">
-        <v>283</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3">
-        <v>905</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3">
-        <v>977</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1051</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3">
-        <v>414</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3">
-        <v>448</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>18</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>19</v>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <f t="shared" ref="A26:A54" si="13" xml:space="preserve"> A25 + 1</f>
+        <v>25</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>20</v>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>21</v>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <f t="shared" ref="A28:A54" si="14" xml:space="preserve"> A27 + 1</f>
+        <v>27</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>22</v>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>23</v>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <f t="shared" ref="A30:A54" si="15" xml:space="preserve"> A29 + 1</f>
+        <v>29</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>24</v>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>25</v>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <f t="shared" ref="A32:A54" si="16" xml:space="preserve"> A31 + 1</f>
+        <v>31</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>26</v>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>27</v>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <f t="shared" ref="A34:A54" si="17" xml:space="preserve"> A33 + 1</f>
+        <v>33</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>28</v>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>29</v>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f t="shared" ref="A36:A54" si="18" xml:space="preserve"> A35 + 1</f>
+        <v>35</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>30</v>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>31</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>32</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>33</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>34</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>35</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>36</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <f t="shared" ref="A38:A54" si="19" xml:space="preserve"> A37 + 1</f>
         <v>37</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <f t="shared" ref="A40:A54" si="20" xml:space="preserve"> A39 + 1</f>
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <f t="shared" ref="A42:A54" si="21" xml:space="preserve"> A41 + 1</f>
         <v>41</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <f t="shared" ref="A44:A54" si="22" xml:space="preserve"> A43 + 1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <f t="shared" ref="A46:A54" si="23" xml:space="preserve"> A45 + 1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <f t="shared" ref="A48:A54" si="24" xml:space="preserve"> A47 + 1</f>
+        <v>47</v>
+      </c>
+    </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>42</v>
+      <c r="A49" s="7">
+        <f t="shared" si="6"/>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43</v>
+      <c r="A50" s="7">
+        <f t="shared" ref="A50:A54" si="25" xml:space="preserve"> A49 + 1</f>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>44</v>
+      <c r="A51" s="7">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>45</v>
+      <c r="A52" s="7">
+        <f t="shared" ref="A52:A54" si="26" xml:space="preserve"> A51 + 1</f>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>46</v>
+      <c r="A53" s="7">
+        <f t="shared" si="6"/>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>47</v>
+      <c r="A54" s="7">
+        <f t="shared" ref="A54" si="27" xml:space="preserve"> A53 + 1</f>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{9CD2778A-506B-F14E-BFEF-C54C2A7778FB}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{036CAB46-71DC-624D-A350-8D29D7FCDD8B}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{3C43037C-9063-BC49-B10A-2C3E4BB28031}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{9D954EE7-79E4-3140-8B4F-716C9DC423EB}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{99B5C71A-F981-7F4A-8F49-8D67431AD933}"/>
-    <hyperlink ref="E12" r:id="rId6" xr:uid="{DE16F3E0-B4A5-FA4B-B411-7ACBA75BFABC}"/>
-    <hyperlink ref="E13" r:id="rId7" xr:uid="{94D4FFBC-D4D0-4E44-A287-178E9B8AA612}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{B201FD64-3F37-E04B-BC14-D4F4A83FCD6F}"/>
-    <hyperlink ref="E15" r:id="rId9" xr:uid="{282B197B-671D-1B4B-ADCE-1104BE1BF775}"/>
-    <hyperlink ref="E16" r:id="rId10" xr:uid="{55DFBAAF-4D0A-3845-AAB8-012FF939A234}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{9CC7B513-55FE-0143-9099-E6FCAA311E1C}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{1CE6BAFA-89B5-6F43-AFC7-EB79234725CB}"/>
-    <hyperlink ref="E19" r:id="rId13" xr:uid="{213F6447-8379-764B-87E8-81E7F69EA6A1}"/>
-    <hyperlink ref="E20" r:id="rId14" xr:uid="{CAC78038-3D84-0040-8233-60599EA95F18}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{23209A29-95CD-3C42-A3B2-D14E2982FA5C}"/>
-    <hyperlink ref="E22" r:id="rId16" xr:uid="{8FD0AF61-22D3-BB48-A526-0481E59CA4B6}"/>
-    <hyperlink ref="E23" r:id="rId17" xr:uid="{9903B9BC-AFF8-604F-A743-BEAE5FE2AEB4}"/>
-    <hyperlink ref="E24" r:id="rId18" xr:uid="{BF50731A-1310-724B-B16F-CFEA1D5582F7}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9CD2778A-506B-F14E-BFEF-C54C2A7778FB}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{3C43037C-9063-BC49-B10A-2C3E4BB28031}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{9D954EE7-79E4-3140-8B4F-716C9DC423EB}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{99B5C71A-F981-7F4A-8F49-8D67431AD933}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{DE16F3E0-B4A5-FA4B-B411-7ACBA75BFABC}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{94D4FFBC-D4D0-4E44-A287-178E9B8AA612}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{B201FD64-3F37-E04B-BC14-D4F4A83FCD6F}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{282B197B-671D-1B4B-ADCE-1104BE1BF775}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{55DFBAAF-4D0A-3845-AAB8-012FF939A234}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{9CC7B513-55FE-0143-9099-E6FCAA311E1C}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{213F6447-8379-764B-87E8-81E7F69EA6A1}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{CAC78038-3D84-0040-8233-60599EA95F18}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{8FD0AF61-22D3-BB48-A526-0481E59CA4B6}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{9903B9BC-AFF8-604F-A743-BEAE5FE2AEB4}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{BF50731A-1310-724B-B16F-CFEA1D5582F7}"/>
+    <hyperlink ref="F2" r:id="rId16" xr:uid="{036CAB46-71DC-624D-A350-8D29D7FCDD8B}"/>
+    <hyperlink ref="F3" r:id="rId17" xr:uid="{38F80DD6-46FE-BE40-8525-BA181149BDF1}"/>
+    <hyperlink ref="F4" r:id="rId18" xr:uid="{2CC45540-CB63-4747-B5DF-0F088521D4FB}"/>
+    <hyperlink ref="F6" r:id="rId19" xr:uid="{47CE66BE-E173-2945-9675-708DA0971E32}"/>
+    <hyperlink ref="F5" r:id="rId20" xr:uid="{F6E60780-C210-CC47-BAA3-65542BFA00C5}"/>
+    <hyperlink ref="F7" r:id="rId21" xr:uid="{ACDA0E04-78C6-9D46-A2A9-E29F4C189526}"/>
+    <hyperlink ref="F8" r:id="rId22" xr:uid="{04EE83DF-6647-E946-BF1D-4F97433CFFE3}"/>
+    <hyperlink ref="F9" r:id="rId23" xr:uid="{8906F4CB-59AA-D64A-B5D5-4ACEBC45F45F}"/>
+    <hyperlink ref="F10" r:id="rId24" xr:uid="{644465F0-8B45-B948-96DC-80948FE41CD1}"/>
+    <hyperlink ref="F11" r:id="rId25" xr:uid="{680518C6-71A6-9B44-B340-1622B831DAF2}"/>
+    <hyperlink ref="F12" r:id="rId26" xr:uid="{058789C8-0E9E-204F-825F-09D7CF15F792}"/>
+    <hyperlink ref="F13" r:id="rId27" xr:uid="{E9E88355-9F76-EC4F-AE5E-FE9464BF7CD9}"/>
+    <hyperlink ref="F14" r:id="rId28" xr:uid="{695C2A2D-A083-8642-8D58-C427C445CB0D}"/>
+    <hyperlink ref="F15" r:id="rId29" xr:uid="{626CE0D6-6F32-FA40-BAE2-C3DF3538B7A0}"/>
+    <hyperlink ref="F16" r:id="rId30" xr:uid="{2CFF6826-87DB-4941-AEEE-3EC2E6120D62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Note.xlsx
+++ b/Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conghoang/_Work/_DailyLeetCodeChallange/_DailyLeetCode_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4686EA38-9AB1-594F-BEFB-92280CCA87E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E17689-D135-574D-87CC-C9411FF77132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36100" yWindow="-1100" windowWidth="34220" windowHeight="21100" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
   </bookViews>
@@ -703,7 +703,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -924,7 +924,7 @@
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <f t="shared" ref="A14:A54" si="7" xml:space="preserve"> A13 + 1</f>
+        <f t="shared" ref="A14" si="7" xml:space="preserve"> A13 + 1</f>
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -972,7 +972,7 @@
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <f t="shared" ref="A16:A54" si="8" xml:space="preserve"> A15 + 1</f>
+        <f t="shared" ref="A16" si="8" xml:space="preserve"> A15 + 1</f>
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -1008,7 +1008,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <f t="shared" ref="A18:A54" si="9" xml:space="preserve"> A17 + 1</f>
+        <f t="shared" ref="A18" si="9" xml:space="preserve"> A17 + 1</f>
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <f t="shared" ref="A20:A54" si="10" xml:space="preserve"> A19 + 1</f>
+        <f t="shared" ref="A20" si="10" xml:space="preserve"> A19 + 1</f>
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <f t="shared" ref="A22:A54" si="11" xml:space="preserve"> A21 + 1</f>
+        <f t="shared" ref="A22" si="11" xml:space="preserve"> A21 + 1</f>
         <v>21</v>
       </c>
       <c r="B22" s="5"/>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <f t="shared" ref="A24:A54" si="12" xml:space="preserve"> A23 + 1</f>
+        <f t="shared" ref="A24" si="12" xml:space="preserve"> A23 + 1</f>
         <v>23</v>
       </c>
       <c r="B24" s="5"/>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <f t="shared" ref="A26:A54" si="13" xml:space="preserve"> A25 + 1</f>
+        <f t="shared" ref="A26" si="13" xml:space="preserve"> A25 + 1</f>
         <v>25</v>
       </c>
       <c r="B26" s="5"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <f t="shared" ref="A28:A54" si="14" xml:space="preserve"> A27 + 1</f>
+        <f t="shared" ref="A28" si="14" xml:space="preserve"> A27 + 1</f>
         <v>27</v>
       </c>
       <c r="B28" s="5"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <f t="shared" ref="A30:A54" si="15" xml:space="preserve"> A29 + 1</f>
+        <f t="shared" ref="A30" si="15" xml:space="preserve"> A29 + 1</f>
         <v>29</v>
       </c>
       <c r="B30" s="5"/>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <f t="shared" ref="A32:A54" si="16" xml:space="preserve"> A31 + 1</f>
+        <f t="shared" ref="A32" si="16" xml:space="preserve"> A31 + 1</f>
         <v>31</v>
       </c>
       <c r="B32" s="5"/>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <f t="shared" ref="A34:A54" si="17" xml:space="preserve"> A33 + 1</f>
+        <f t="shared" ref="A34" si="17" xml:space="preserve"> A33 + 1</f>
         <v>33</v>
       </c>
       <c r="B34" s="5"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <f t="shared" ref="A36:A54" si="18" xml:space="preserve"> A35 + 1</f>
+        <f t="shared" ref="A36" si="18" xml:space="preserve"> A35 + 1</f>
         <v>35</v>
       </c>
       <c r="B36" s="5"/>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <f t="shared" ref="A38:A54" si="19" xml:space="preserve"> A37 + 1</f>
+        <f t="shared" ref="A38" si="19" xml:space="preserve"> A37 + 1</f>
         <v>37</v>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <f t="shared" ref="A40:A54" si="20" xml:space="preserve"> A39 + 1</f>
+        <f t="shared" ref="A40" si="20" xml:space="preserve"> A39 + 1</f>
         <v>39</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <f t="shared" ref="A42:A54" si="21" xml:space="preserve"> A41 + 1</f>
+        <f t="shared" ref="A42" si="21" xml:space="preserve"> A41 + 1</f>
         <v>41</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <f t="shared" ref="A44:A54" si="22" xml:space="preserve"> A43 + 1</f>
+        <f t="shared" ref="A44" si="22" xml:space="preserve"> A43 + 1</f>
         <v>43</v>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <f t="shared" ref="A46:A54" si="23" xml:space="preserve"> A45 + 1</f>
+        <f t="shared" ref="A46" si="23" xml:space="preserve"> A45 + 1</f>
         <v>45</v>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <f t="shared" ref="A48:A54" si="24" xml:space="preserve"> A47 + 1</f>
+        <f t="shared" ref="A48" si="24" xml:space="preserve"> A47 + 1</f>
         <v>47</v>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <f t="shared" ref="A50:A54" si="25" xml:space="preserve"> A49 + 1</f>
+        <f t="shared" ref="A50" si="25" xml:space="preserve"> A49 + 1</f>
         <v>49</v>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <f t="shared" ref="A52:A54" si="26" xml:space="preserve"> A51 + 1</f>
+        <f t="shared" ref="A52" si="26" xml:space="preserve"> A51 + 1</f>
         <v>51</v>
       </c>
     </row>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conghoang/_Work/_DailyLeetCodeChallange/_DailyLeetCode_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E17689-D135-574D-87CC-C9411FF77132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93939D25-4243-A94B-897E-9DC9C6A29AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36100" yWindow="-1100" windowWidth="34220" windowHeight="21100" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="34220" windowHeight="17540" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -190,6 +190,183 @@
   </si>
   <si>
     <t>#array #sort</t>
+  </si>
+  <si>
+    <t>#linkedlist</t>
+  </si>
+  <si>
+    <t>#queue #array</t>
+  </si>
+  <si>
+    <t>#stack #linkedlist</t>
+  </si>
+  <si>
+    <t>#stack</t>
+  </si>
+  <si>
+    <t>#stack #queue</t>
+  </si>
+  <si>
+    <t>#recursion</t>
+  </si>
+  <si>
+    <t>#linkedlist #recursion</t>
+  </si>
+  <si>
+    <t>#bsearch #recursion</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1-AXNmmNW7E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iQZkN44SHpY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6yfoH8OAQu8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pKSQvjeuWM4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N8jsojWHIgY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e29cATDEe2w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BHbKJeXeW4E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nIT3aO0pCJU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YqOf8XD_0Ko</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eFmikAqRsNc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6IOn_ZNEp8g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cXz4UThVVzE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zACuyV5mMOo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fMIhbp0RmjE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bwicsjb5AT4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SmWxMj31lGA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=85XPN57Z0QU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SEtxn9UPIW4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JOixabUWrBQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cz9N-289VC8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B6mgXhAU_f4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XF6MyehncDw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lgCwEYJVuUc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5BAEKVe2V_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Linked List.                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked List Cycle.                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked List Cycle II.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection of Two Linked Lists.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Nth Node From End of List.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Linked List.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Linked List Elements.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odd Even Linked List.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Pivot Index.                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome Linked List.            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus one.                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Circular Queue.             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Parentheses.                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Stack.                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Queue using Stacks.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Queues.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decode String.                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse String                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibonacci Number                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pow(x, n)                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Two Sorted Lists.            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swap Nodes in Pairs.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search.                     </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Number At Least Twice of Others         </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ipovEFTOGyE</t>
   </si>
 </sst>
 </file>
@@ -234,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,12 +434,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,6 +472,42 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,16 +826,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A12903-E2B6-B344-BB9D-D2A161D6A3F4}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="7" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="45.1640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -619,7 +847,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -642,7 +870,7 @@
       <c r="B2" s="3">
         <v>485</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -666,7 +894,7 @@
       <c r="B3" s="3">
         <v>1295</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -690,7 +918,7 @@
       <c r="B4" s="3">
         <v>977</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -714,7 +942,7 @@
       <c r="B5" s="3">
         <v>1089</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -738,7 +966,7 @@
       <c r="B6" s="3">
         <v>88</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -762,7 +990,7 @@
       <c r="B7" s="3">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -786,7 +1014,7 @@
       <c r="B8" s="3">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -810,7 +1038,7 @@
       <c r="B9" s="3">
         <v>1346</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -834,7 +1062,7 @@
       <c r="B10" s="3">
         <v>941</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -858,7 +1086,7 @@
       <c r="B11" s="3">
         <v>1299</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -882,7 +1110,7 @@
       <c r="B12" s="3">
         <v>283</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -906,7 +1134,7 @@
       <c r="B13" s="3">
         <v>905</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -930,7 +1158,7 @@
       <c r="B14" s="3">
         <v>1051</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -954,7 +1182,7 @@
       <c r="B15" s="3">
         <v>414</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -978,7 +1206,7 @@
       <c r="B16" s="3">
         <v>448</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -999,279 +1227,507 @@
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="13">
+        <v>707</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="9"/>
+      <c r="F17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" ref="A18" si="9" xml:space="preserve"> A17 + 1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="13">
+        <v>141</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="13">
+        <v>142</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" ref="A20" si="10" xml:space="preserve"> A19 + 1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="13">
+        <v>160</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="13">
+        <v>19</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="9"/>
+      <c r="F21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" ref="A22" si="11" xml:space="preserve"> A21 + 1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="13">
+        <v>206</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="13">
+        <v>203</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" ref="A24" si="12" xml:space="preserve"> A23 + 1</f>
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="13">
+        <v>328</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="13">
+        <v>724</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="9"/>
+      <c r="F25" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" ref="A26" si="13" xml:space="preserve"> A25 + 1</f>
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="13">
+        <v>747</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="13">
+        <v>234</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" ref="A28" si="14" xml:space="preserve"> A27 + 1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="13">
+        <v>66</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="13">
+        <v>622</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" ref="A30" si="15" xml:space="preserve"> A29 + 1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="13">
+        <v>20</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="13">
+        <v>155</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" ref="A32" si="16" xml:space="preserve"> A31 + 1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="13">
+        <v>232</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="13">
+        <v>225</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" ref="A34" si="17" xml:space="preserve"> A33 + 1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="B34" s="13">
+        <v>394</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="B35" s="13">
+        <v>344</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" ref="A36" si="18" xml:space="preserve"> A35 + 1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="13">
+        <v>509</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="B37" s="13">
+        <v>50</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" ref="A38" si="19" xml:space="preserve"> A37 + 1</f>
         <v>37</v>
       </c>
+      <c r="B38" s="13">
+        <v>206</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
+      <c r="B39" s="13">
+        <v>21</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <f t="shared" ref="A40" si="20" xml:space="preserve"> A39 + 1</f>
         <v>39</v>
       </c>
+      <c r="B40" s="13">
+        <v>24</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
+      <c r="B41" s="13">
+        <v>704</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <f t="shared" ref="A42" si="21" xml:space="preserve"> A41 + 1</f>
         <v>41</v>
       </c>
@@ -1550,6 +2006,33 @@
     <hyperlink ref="F14" r:id="rId28" xr:uid="{695C2A2D-A083-8642-8D58-C427C445CB0D}"/>
     <hyperlink ref="F15" r:id="rId29" xr:uid="{626CE0D6-6F32-FA40-BAE2-C3DF3538B7A0}"/>
     <hyperlink ref="F16" r:id="rId30" xr:uid="{2CFF6826-87DB-4941-AEEE-3EC2E6120D62}"/>
+    <hyperlink ref="F34" r:id="rId31" xr:uid="{D89DA900-771A-4B45-8FD9-A127191E07A8}"/>
+    <hyperlink ref="F17" r:id="rId32" xr:uid="{6186AF60-5C13-A148-A7C8-E54494206F30}"/>
+    <hyperlink ref="F18" r:id="rId33" xr:uid="{FC2F4324-D699-6D46-824F-63B54B55D135}"/>
+    <hyperlink ref="F19" r:id="rId34" xr:uid="{589C1982-F8D3-6A41-918A-A5CA652546D7}"/>
+    <hyperlink ref="F20" r:id="rId35" xr:uid="{5F9041B1-95B2-7543-8983-5748ABA12772}"/>
+    <hyperlink ref="F21" r:id="rId36" xr:uid="{522C44BD-23A5-4849-BA3F-CAA71961A44E}"/>
+    <hyperlink ref="F22" r:id="rId37" xr:uid="{B46541CB-0373-0046-AF5F-46554C23B3F0}"/>
+    <hyperlink ref="F23" r:id="rId38" xr:uid="{0B699D2A-4E82-CD45-91AD-FB7830D1DD01}"/>
+    <hyperlink ref="F24" r:id="rId39" xr:uid="{68A97BAA-C699-A84B-A9E6-4FE623F6DC84}"/>
+    <hyperlink ref="F25" r:id="rId40" xr:uid="{F743823C-C895-D344-98D5-2C0D2DD8CECE}"/>
+    <hyperlink ref="F26" r:id="rId41" xr:uid="{F015272F-DA1B-EE48-9D5F-2619E8EC6FB2}"/>
+    <hyperlink ref="F27" r:id="rId42" xr:uid="{499286B9-9F70-384F-986E-10B61F75D5A8}"/>
+    <hyperlink ref="F28" r:id="rId43" xr:uid="{1C17B2C5-A9B8-E348-93EC-BA19F5CFB6B1}"/>
+    <hyperlink ref="F29" r:id="rId44" xr:uid="{03B4F346-F293-9444-AE91-0D6951057197}"/>
+    <hyperlink ref="F30" r:id="rId45" xr:uid="{447F67BD-46CE-4F40-94EB-DACD0F3E1D89}"/>
+    <hyperlink ref="F31" r:id="rId46" xr:uid="{59136BCE-6F2A-7A47-9C0D-D2D7E13F9F93}"/>
+    <hyperlink ref="F32" r:id="rId47" xr:uid="{9E8EDA58-54AA-5F4B-9026-4867DBF8193F}"/>
+    <hyperlink ref="F33" r:id="rId48" xr:uid="{7B56E69D-8B0C-9942-B0B9-9C0A326B3B09}"/>
+    <hyperlink ref="F35" r:id="rId49" xr:uid="{148C76F6-2F16-614B-8092-089544CFA2AC}"/>
+    <hyperlink ref="F36" r:id="rId50" xr:uid="{314FFA4C-182E-BC4A-B8DD-12A0E012549F}"/>
+    <hyperlink ref="F37" r:id="rId51" xr:uid="{1D205A43-61B3-6549-BBD9-CCA9CB4D9099}"/>
+    <hyperlink ref="F38" r:id="rId52" xr:uid="{2CED2EC0-65CF-8242-BDFE-36A659C1F5C7}"/>
+    <hyperlink ref="F39" r:id="rId53" xr:uid="{1BD818F1-772B-1A44-AA2C-C9AD08F7DC24}"/>
+    <hyperlink ref="F40" r:id="rId54" xr:uid="{D4CA113E-D060-1344-9E5C-C17F2B0B572A}"/>
+    <hyperlink ref="F41" r:id="rId55" xr:uid="{CA882B5E-F2C2-A04C-B570-F8A39B8D4E0E}"/>
+    <hyperlink ref="E18" r:id="rId56" xr:uid="{4A6C5CD1-57E5-0F47-BC6A-622E3D87341B}"/>
+    <hyperlink ref="E22" r:id="rId57" xr:uid="{157F077D-56DD-B54F-AD72-021CF8C0E410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conghoang/_Work/_DailyLeetCodeChallange/_DailyLeetCode_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93939D25-4243-A94B-897E-9DC9C6A29AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E62FE6-A23B-2046-9803-F780F5CC997F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="34220" windowHeight="17540" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ipovEFTOGyE</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-circular-queue/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-stack-using-queues/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-queue-using-stacks/</t>
   </si>
 </sst>
 </file>
@@ -826,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A12903-E2B6-B344-BB9D-D2A161D6A3F4}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,7 +1478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -1478,7 +1490,9 @@
         <v>98</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="F29" s="15" t="s">
         <v>74</v>
       </c>
@@ -1526,7 +1540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" ref="A32" si="16" xml:space="preserve"> A31 + 1</f>
         <v>31</v>
@@ -1538,7 +1552,9 @@
         <v>101</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="F32" s="15" t="s">
         <v>77</v>
       </c>
@@ -1546,7 +1562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="6"/>
         <v>32</v>
@@ -1558,7 +1574,9 @@
         <v>102</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="F33" s="15" t="s">
         <v>78</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" ref="A34" si="17" xml:space="preserve"> A33 + 1</f>
         <v>33</v>
@@ -1578,7 +1596,9 @@
         <v>103</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="F34" s="15" t="s">
         <v>79</v>
       </c>
@@ -2033,6 +2053,10 @@
     <hyperlink ref="F41" r:id="rId55" xr:uid="{CA882B5E-F2C2-A04C-B570-F8A39B8D4E0E}"/>
     <hyperlink ref="E18" r:id="rId56" xr:uid="{4A6C5CD1-57E5-0F47-BC6A-622E3D87341B}"/>
     <hyperlink ref="E22" r:id="rId57" xr:uid="{157F077D-56DD-B54F-AD72-021CF8C0E410}"/>
+    <hyperlink ref="E29" r:id="rId58" xr:uid="{CE0235CB-7990-4948-A745-607F6291765F}"/>
+    <hyperlink ref="E34" r:id="rId59" xr:uid="{00122B42-072F-EE4D-B95D-376386AE670B}"/>
+    <hyperlink ref="E33" r:id="rId60" xr:uid="{5FFF1F6A-D2D9-954E-8C1C-D37241B7D76E}"/>
+    <hyperlink ref="E32" r:id="rId61" xr:uid="{8A7F6923-C47F-AE42-899B-C6D5BB8DD2E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conghoang/_Work/_DailyLeetCodeChallange/_DailyLeetCode_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E62FE6-A23B-2046-9803-F780F5CC997F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A859984E-C35D-E942-9BEF-9F3FD5A31908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
   </bookViews>
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,6 +520,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A12903-E2B6-B344-BB9D-D2A161D6A3F4}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +855,7 @@
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="45.1640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1114,7 +1120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f xml:space="preserve"> A11 + 1</f>
         <v>11</v>
@@ -1250,7 +1256,7 @@
       <c r="F17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1272,7 +1278,7 @@
       <c r="F18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1292,7 +1298,7 @@
       <c r="F19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1312,7 +1318,7 @@
       <c r="F20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1332,7 +1338,7 @@
       <c r="F21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1354,7 +1360,7 @@
       <c r="F22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1374,7 +1380,7 @@
       <c r="F23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1394,7 +1400,7 @@
       <c r="F24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1414,7 +1420,7 @@
       <c r="F25" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1434,7 +1440,7 @@
       <c r="F26" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1454,7 +1460,7 @@
       <c r="F27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1474,7 +1480,7 @@
       <c r="F28" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1496,7 +1502,7 @@
       <c r="F29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1516,7 +1522,7 @@
       <c r="F30" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1536,7 +1542,7 @@
       <c r="F31" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1558,7 +1564,7 @@
       <c r="F32" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="20" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1580,7 +1586,7 @@
       <c r="F33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="20" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1602,7 +1608,7 @@
       <c r="F34" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1622,7 +1628,7 @@
       <c r="F35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1642,7 +1648,7 @@
       <c r="F36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1662,7 +1668,7 @@
       <c r="F37" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1682,7 +1688,7 @@
       <c r="F38" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="20" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1702,7 +1708,7 @@
       <c r="F39" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="20" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1722,7 +1728,7 @@
       <c r="F40" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="20" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1742,7 +1748,7 @@
       <c r="F41" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="20" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conghoang/_Work/_DailyLeetCodeChallange/_DailyLeetCode_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A859984E-C35D-E942-9BEF-9F3FD5A31908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C80508-D2B1-8242-8114-7F5AE6A9001E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
+    <workbookView xWindow="-35000" yWindow="-2040" windowWidth="32800" windowHeight="15540" xr2:uid="{08A9FDC7-BB65-5645-90BF-17724F1CD195}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -379,6 +379,27 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-queue-using-stacks/</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-difference/</t>
+  </si>
+  <si>
+    <t>#hashtable #map</t>
+  </si>
+  <si>
+    <t>Jewels and Stones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jewels-and-stones/</t>
+  </si>
+  <si>
+    <t>1207. Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-number-of-occurrences/</t>
   </si>
 </sst>
 </file>
@@ -464,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,11 +542,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A12903-E2B6-B344-BB9D-D2A161D6A3F4}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,7 +882,10 @@
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="45.1640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -877,7 +907,7 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -900,7 +930,7 @@
       <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -924,7 +954,7 @@
       <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -948,7 +978,7 @@
       <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -972,7 +1002,7 @@
       <c r="F5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -996,7 +1026,7 @@
       <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1020,7 +1050,7 @@
       <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1044,7 +1074,7 @@
       <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1068,7 +1098,7 @@
       <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1092,7 +1122,7 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1116,7 +1146,7 @@
       <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1140,7 +1170,7 @@
       <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1164,7 +1194,7 @@
       <c r="F13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1188,7 +1218,7 @@
       <c r="F14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1212,7 +1242,7 @@
       <c r="F15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1236,7 +1266,7 @@
       <c r="F16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1256,7 +1286,7 @@
       <c r="F17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1278,7 +1308,7 @@
       <c r="F18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1298,7 +1328,7 @@
       <c r="F19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1318,7 +1348,7 @@
       <c r="F20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1338,7 +1368,7 @@
       <c r="F21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1360,7 +1390,7 @@
       <c r="F22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1380,7 +1410,7 @@
       <c r="F23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1400,7 +1430,7 @@
       <c r="F24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1420,7 +1450,7 @@
       <c r="F25" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1440,7 +1470,7 @@
       <c r="F26" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1460,7 +1490,7 @@
       <c r="F27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1480,7 +1510,7 @@
       <c r="F28" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1502,7 +1532,7 @@
       <c r="F29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1522,7 +1552,7 @@
       <c r="F30" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="23" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1542,7 +1572,7 @@
       <c r="F31" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1564,7 +1594,7 @@
       <c r="F32" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1586,7 +1616,7 @@
       <c r="F33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1608,7 +1638,7 @@
       <c r="F34" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1628,7 +1658,7 @@
       <c r="F35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1648,7 +1678,7 @@
       <c r="F36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1668,7 +1698,7 @@
       <c r="F37" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1688,7 +1718,7 @@
       <c r="F38" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1708,7 +1738,7 @@
       <c r="F39" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1728,7 +1758,7 @@
       <c r="F40" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1748,26 +1778,71 @@
       <c r="F41" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <f t="shared" ref="A42" si="21" xml:space="preserve"> A41 + 1</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="14">
+        <v>389</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="14">
+        <v>771</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <f t="shared" ref="A44" si="22" xml:space="preserve"> A43 + 1</f>
         <v>43</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1207</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2063,6 +2138,9 @@
     <hyperlink ref="E34" r:id="rId59" xr:uid="{00122B42-072F-EE4D-B95D-376386AE670B}"/>
     <hyperlink ref="E33" r:id="rId60" xr:uid="{5FFF1F6A-D2D9-954E-8C1C-D37241B7D76E}"/>
     <hyperlink ref="E32" r:id="rId61" xr:uid="{8A7F6923-C47F-AE42-899B-C6D5BB8DD2E7}"/>
+    <hyperlink ref="E42" r:id="rId62" xr:uid="{50E2E91F-5F05-3740-AA8A-A532089A9BF3}"/>
+    <hyperlink ref="E43" r:id="rId63" xr:uid="{27612548-1843-E742-A64F-6A85CD6924AF}"/>
+    <hyperlink ref="E44" r:id="rId64" xr:uid="{B54732C5-10D1-7046-94E2-0F93EDDCD7CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
